--- a/file/工作任务计划-物业系统-20160102.xlsx
+++ b/file/工作任务计划-物业系统-20160102.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$140</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="133">
   <si>
     <t>任务名称</t>
   </si>
@@ -415,6 +418,10 @@
   </si>
   <si>
     <t>负责人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +957,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
@@ -1506,7 +1513,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1531,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1542,7 +1549,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1567,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1585,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -1596,7 +1603,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1614,7 +1621,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>77</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
@@ -1632,7 +1639,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>78</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>128</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="8"/>
@@ -1650,7 +1657,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="8"/>
@@ -1668,7 +1675,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="8"/>
@@ -1686,7 +1693,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
@@ -1704,7 +1711,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>128</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="8"/>
@@ -1722,7 +1729,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>128</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="8"/>
@@ -1740,7 +1747,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>128</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8"/>
@@ -1758,7 +1765,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>85</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>128</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="8"/>
@@ -1776,7 +1783,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>86</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>128</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8"/>
@@ -1794,16 +1801,14 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="3"/>
       <c r="E47" s="8"/>
       <c r="F47" s="3"/>
@@ -1884,7 +1889,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +1907,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>23</v>
       </c>
@@ -1910,7 +1915,7 @@
         <v>128</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1920,7 +1925,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>128</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1938,7 +1943,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>24</v>
       </c>
@@ -1956,7 +1961,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="40.5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="40.5" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>44</v>
       </c>
@@ -1994,7 +1999,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
@@ -2012,7 +2017,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2035,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>24</v>
       </c>
@@ -2048,7 +2053,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +2071,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2089,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="67.5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="67.5" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>42</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:8" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
@@ -2122,7 +2127,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
         <v>23</v>
       </c>
@@ -2140,7 +2145,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>24</v>
       </c>
@@ -2158,7 +2163,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
@@ -2176,7 +2181,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="40.5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="40.5" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2597,7 @@
       </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>70</v>
       </c>
@@ -2610,7 +2615,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>71</v>
       </c>
@@ -2628,7 +2633,7 @@
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>72</v>
       </c>
@@ -2646,7 +2651,7 @@
       </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>73</v>
       </c>
@@ -2664,7 +2669,7 @@
       </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="14.25" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>74</v>
       </c>
@@ -2682,7 +2687,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>88</v>
       </c>
@@ -2700,7 +2705,7 @@
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>89</v>
       </c>
@@ -2718,7 +2723,7 @@
       </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>75</v>
       </c>
@@ -2736,7 +2741,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>90</v>
       </c>
@@ -2754,7 +2759,7 @@
       </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>91</v>
       </c>
@@ -2772,7 +2777,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>92</v>
       </c>
@@ -2790,7 +2795,7 @@
       </c>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
         <v>93</v>
       </c>
@@ -2808,7 +2813,7 @@
       </c>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>94</v>
       </c>
@@ -2826,7 +2831,7 @@
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2849,7 @@
       </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
         <v>96</v>
       </c>
@@ -2880,7 +2885,7 @@
       </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
         <v>97</v>
       </c>
@@ -2898,7 +2903,7 @@
       </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +2921,7 @@
       </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
@@ -2934,7 +2939,7 @@
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
         <v>100</v>
       </c>
@@ -2952,7 +2957,7 @@
       </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
         <v>101</v>
       </c>
@@ -2970,7 +2975,7 @@
       </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
         <v>102</v>
       </c>
@@ -2988,7 +2993,7 @@
       </c>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>103</v>
       </c>
@@ -3006,7 +3011,7 @@
       </c>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
         <v>96</v>
       </c>
@@ -3024,7 +3029,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
         <v>97</v>
       </c>
@@ -3042,7 +3047,7 @@
       </c>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A116" s="9" t="s">
         <v>98</v>
       </c>
@@ -3060,7 +3065,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
         <v>99</v>
       </c>
@@ -3078,7 +3083,7 @@
       </c>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
         <v>100</v>
       </c>
@@ -3096,7 +3101,7 @@
       </c>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3119,7 @@
       </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
         <v>102</v>
       </c>
@@ -3132,7 +3137,7 @@
       </c>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>104</v>
       </c>
@@ -3150,7 +3155,7 @@
       </c>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
         <v>105</v>
       </c>
@@ -3168,7 +3173,7 @@
       </c>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>106</v>
       </c>
@@ -3186,7 +3191,7 @@
       </c>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="14.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
         <v>107</v>
       </c>
@@ -3204,7 +3209,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>108</v>
       </c>
@@ -3222,7 +3227,7 @@
       </c>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
         <v>109</v>
       </c>
@@ -3240,7 +3245,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
         <v>110</v>
       </c>
@@ -3258,7 +3263,7 @@
       </c>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
         <v>111</v>
       </c>
@@ -3276,7 +3281,7 @@
       </c>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
         <v>112</v>
       </c>
@@ -3294,7 +3299,7 @@
       </c>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
         <v>113</v>
       </c>
@@ -3312,7 +3317,7 @@
       </c>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
         <v>114</v>
       </c>
@@ -3330,7 +3335,7 @@
       </c>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
         <v>115</v>
       </c>
@@ -3348,7 +3353,7 @@
       </c>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>116</v>
       </c>
@@ -3366,7 +3371,7 @@
       </c>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
         <v>117</v>
       </c>
@@ -3384,7 +3389,7 @@
       </c>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>118</v>
       </c>
@@ -3402,7 +3407,7 @@
       </c>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
         <v>119</v>
       </c>
@@ -3420,7 +3425,7 @@
       </c>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
         <v>120</v>
       </c>
@@ -3438,7 +3443,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
         <v>121</v>
       </c>
@@ -3456,7 +3461,7 @@
       </c>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
         <v>114</v>
       </c>
@@ -3474,7 +3479,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" ht="14.25" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="14.25" outlineLevel="3" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
         <v>122</v>
       </c>
